--- a/BuildTool/Config/UseItem.xlsx
+++ b/BuildTool/Config/UseItem.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/BuildTool/Config/UseItem.xlsx
+++ b/BuildTool/Config/UseItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附加定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref=Item.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asep=,|sep=个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +134,18 @@
   </si>
   <si>
     <t>10个盘子,20个桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias=Item.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref=Item.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,11 +538,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="46.75" customWidth="1"/>
@@ -547,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -561,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -578,10 +583,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -595,37 +600,40 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -633,13 +641,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -647,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -661,13 +669,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +700,7 @@
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/UseItem.xlsx
+++ b/BuildTool/Config/UseItem.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/BuildTool/Config/UseItem.xlsx
+++ b/BuildTool/Config/UseItem.xlsx
@@ -121,31 +121,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10个筷子,20个桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个桌子,20个桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个盘子,20个桌子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias=Item.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref=Item.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>asep=,|sep=个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个筷子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个桌子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个盘子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias=Item.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref=Item.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -617,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -628,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -647,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -661,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/UseItem.xlsx
+++ b/BuildTool/Config/UseItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>筷子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>upgrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盘子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10个筷子,20个桌子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,19 +113,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alias=Item.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref=Item.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>asep=,|sep=个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias=Item.name|ref=Item.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +518,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -566,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -583,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -600,40 +580,34 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -641,13 +615,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -655,13 +629,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -669,13 +643,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +674,7 @@
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/UseItem.xlsx
+++ b/BuildTool/Config/UseItem.xlsx
@@ -89,43 +89,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Consume[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>upgrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Consume[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>original_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个筷子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个桌子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个盘子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asep=,|sep=个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias=Item.name|ref=Item.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
+    <t>alias=Item.name&amp;r2ef=Item.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*300,3*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep=,*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*100,2*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100*30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +518,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -588,13 +588,13 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/UseItem.xlsx
+++ b/BuildTool/Config/UseItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alias=Item.name&amp;r2ef=Item.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4*300,3*300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +122,14 @@
   </si>
   <si>
     <t>100*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref=Item.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias=Item.name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +522,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -594,16 +598,19 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -621,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -635,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -649,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
